--- a/rekap.xlsx
+++ b/rekap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10455" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="9795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2 putra" sheetId="3" r:id="rId1"/>
@@ -13,22 +13,30 @@
     <sheet name="3 putri" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2 putra'!$A$1:$I$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2 putri'!$A$1:$I$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'3 putra'!$A$1:$I$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'3 putri'!$A$1:$I$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2 putra'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2 putri'!$A$1:$J$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'3 putra'!$A$1:$J$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'3 putri'!$A$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ SANTRI MABAIZ TAHUN 2022</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Marhalah : </t>
     </r>
     <r>
@@ -82,7 +90,7 @@
     <t>21.02.020</t>
   </si>
   <si>
-    <t>An-Nisa: 11</t>
+    <t>An-Nisa: 14</t>
   </si>
   <si>
     <t>Khalid Ghazy</t>
@@ -91,7 +99,7 @@
     <t>21.02.022</t>
   </si>
   <si>
-    <t>Al-An'am: 110</t>
+    <t>Al-An'am: 131</t>
   </si>
   <si>
     <t>Muhammad Radja</t>
@@ -100,7 +108,7 @@
     <t>21.02.023</t>
   </si>
   <si>
-    <t>Ali Imran: 37</t>
+    <t>Ali Imran: 45</t>
   </si>
   <si>
     <t>Muhammad Rasya</t>
@@ -109,7 +117,7 @@
     <t>21.02.024</t>
   </si>
   <si>
-    <t>An-Nisa: 154</t>
+    <t>Al-Maidah: 2</t>
   </si>
   <si>
     <t>Muhammad Rayhan</t>
@@ -130,25 +138,16 @@
     <t>21.02.021</t>
   </si>
   <si>
-    <t>Hud: 28</t>
-  </si>
-  <si>
     <t>Rihal Muharrikul Haq</t>
   </si>
   <si>
     <t>21.02.027</t>
   </si>
   <si>
-    <t>Al-Anfal: 40</t>
-  </si>
-  <si>
     <t>Hanifatul Qoimah</t>
   </si>
   <si>
     <t>21.02.030</t>
-  </si>
-  <si>
-    <t>An-Nisa: 6</t>
   </si>
   <si>
     <t>Maryam Fikria Tasya</t>
@@ -163,7 +162,7 @@
     <t>21.02.031</t>
   </si>
   <si>
-    <t>Al-Maidah: 45</t>
+    <t>Al-Maidah: 70</t>
   </si>
   <si>
     <t>Najwa Hani Fillah</t>
@@ -172,7 +171,7 @@
     <t>21.02.032</t>
   </si>
   <si>
-    <t>Al-Maidah: 41</t>
+    <t>Al-Maidah: 64</t>
   </si>
   <si>
     <t>Nayla Izzatul Hasanah</t>
@@ -181,7 +180,7 @@
     <t>21.02.033</t>
   </si>
   <si>
-    <t>Al-Maidah: 64</t>
+    <t>Al-Maidah: 82</t>
   </si>
   <si>
     <t>Nida Khalwatus S</t>
@@ -190,7 +189,7 @@
     <t>21.02.034</t>
   </si>
   <si>
-    <t>An-Nisa: 140</t>
+    <t>An-Nisa: 147</t>
   </si>
   <si>
     <t>Riska Fitriana Putri</t>
@@ -199,16 +198,27 @@
     <t>21.02.035</t>
   </si>
   <si>
+    <t>An-Nisa: 79</t>
+  </si>
+  <si>
     <t>Safaraz Aufa Rifdah</t>
   </si>
   <si>
     <t>21.02.036</t>
   </si>
   <si>
-    <t>Al-An'am: 101</t>
+    <t>Al-An'am: 110</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Marhalah : </t>
     </r>
     <r>
@@ -238,7 +248,7 @@
     <t>20.02.004</t>
   </si>
   <si>
-    <t>Ali Imran: 15</t>
+    <t>Ali Imran: 91</t>
   </si>
   <si>
     <t>M. Fatih Yusuf Rahman</t>
@@ -247,7 +257,7 @@
     <t>20.02.005</t>
   </si>
   <si>
-    <t>Ali Imran: 91</t>
+    <t>An-Nisa: 23</t>
   </si>
   <si>
     <t>Dzaakir Hawaary Arbie</t>
@@ -256,7 +266,7 @@
     <t>20.02.006</t>
   </si>
   <si>
-    <t>Al-A'raf: 195</t>
+    <t>Al-Anfal: 8</t>
   </si>
   <si>
     <t>Muhammad Firmansyah</t>
@@ -265,7 +275,7 @@
     <t>20.02.007</t>
   </si>
   <si>
-    <t>Ar-Ra'd: 28</t>
+    <t>Ibrahim: 10</t>
   </si>
   <si>
     <t>Syamil Muwahhiduddien</t>
@@ -274,16 +284,13 @@
     <t>20.02.013</t>
   </si>
   <si>
-    <t>Al-Baqarah: 274</t>
-  </si>
-  <si>
-    <t>Royyan Abdullah Asyari</t>
+    <t>Royyan Abdullah Assariy</t>
   </si>
   <si>
     <t>20.02.017</t>
   </si>
   <si>
-    <t>Yusuf: 43</t>
+    <t>Yusuf: 86</t>
   </si>
   <si>
     <t>Jahrisa Juana</t>
@@ -292,16 +299,10 @@
     <t>20.02.008</t>
   </si>
   <si>
-    <t>An-Nahl: 64</t>
-  </si>
-  <si>
     <t>Nurlayli Ubadah</t>
   </si>
   <si>
     <t>20.02.009</t>
-  </si>
-  <si>
-    <t>Hud: 5</t>
   </si>
   <si>
     <t>Nadyne Fathiya Chairinda</t>
@@ -310,25 +311,16 @@
     <t>20.02.010</t>
   </si>
   <si>
-    <t>Al-An'am: 68</t>
-  </si>
-  <si>
     <t>Salwa</t>
   </si>
   <si>
     <t>20.02.011</t>
   </si>
   <si>
-    <t>Al-A'raf: 30</t>
-  </si>
-  <si>
     <t>Muthia Shofia</t>
   </si>
   <si>
     <t>20.02.012</t>
-  </si>
-  <si>
-    <t>Al-Anbiya: 44</t>
   </si>
   <si>
     <t>Inas Afifah</t>
@@ -345,8 +337,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -372,8 +364,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,30 +417,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,21 +426,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,8 +478,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,14 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,31 +517,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,25 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,19 +577,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +613,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,67 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,12 +697,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -734,22 +726,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,17 +761,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,16 +786,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,23 +836,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,146 +864,143 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,8 +1026,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1021,10 +1041,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1121,17 +1145,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putra'!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1147,44 +1160,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putra'!$A$5:$C$13</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putra'!$A$5:$A$13</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putra'!$A$5:$A$13</c:f>
+              <c:f>'2 putra'!$L$4:$L$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Arviandow</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Ayaturrahman Shinra</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Khalid Ghazy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Muhammad Radja</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Rasya</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Muhammad Rayhan</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Fa'iq</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hazwan Hafidzudin</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Rihal Muharrikul Haq</c:v>
                 </c:pt>
               </c:strCache>
@@ -1192,36 +1198,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putra'!$D$5:$D$13</c:f>
+              <c:f>'2 putra'!$M$4:$M$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>593</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,17 +1239,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putra'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1256,44 +1254,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putra'!$A$5:$C$13</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putra'!$A$5:$A$13</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putra'!$A$5:$A$13</c:f>
+              <c:f>'2 putra'!$L$4:$L$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Arviandow</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Ayaturrahman Shinra</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Khalid Ghazy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Muhammad Radja</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Rasya</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Muhammad Rayhan</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Fa'iq</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hazwan Hafidzudin</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Rihal Muharrikul Haq</c:v>
                 </c:pt>
               </c:strCache>
@@ -1301,36 +1292,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putra'!$E$5:$E$13</c:f>
+              <c:f>'2 putra'!$N$4:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>583</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>112</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,17 +1333,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putra'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -1365,44 +1348,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putra'!$A$5:$C$13</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putra'!$A$5:$A$13</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putra'!$A$5:$A$13</c:f>
+              <c:f>'2 putra'!$L$4:$L$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Arviandow</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Ayaturrahman Shinra</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Khalid Ghazy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Muhammad Radja</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Rasya</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Muhammad Rayhan</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Fa'iq</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hazwan Hafidzudin</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Rihal Muharrikul Haq</c:v>
                 </c:pt>
               </c:strCache>
@@ -1410,36 +1386,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putra'!$F$5:$F$13</c:f>
+              <c:f>'2 putra'!$O$4:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>169</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>153</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,17 +1427,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putra'!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -1474,44 +1442,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putra'!$A$5:$C$13</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putra'!$A$5:$A$13</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putra'!$A$5:$A$13</c:f>
+              <c:f>'2 putra'!$L$4:$L$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Arviandow</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Ayaturrahman Shinra</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Khalid Ghazy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Muhammad Radja</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Rasya</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Muhammad Rayhan</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Fa'iq</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hazwan Hafidzudin</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Rihal Muharrikul Haq</c:v>
                 </c:pt>
               </c:strCache>
@@ -1519,36 +1480,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putra'!$G$5:$G$13</c:f>
+              <c:f>'2 putra'!$P$4:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165</c:v>
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,17 +1521,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putra'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jul</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -1583,44 +1536,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putra'!$A$5:$C$13</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putra'!$A$5:$A$13</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putra'!$A$5:$A$13</c:f>
+              <c:f>'2 putra'!$L$4:$L$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Arviandow</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Ayaturrahman Shinra</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Khalid Ghazy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Muhammad Radja</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Rasya</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Muhammad Rayhan</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Fa'iq</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hazwan Hafidzudin</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Rihal Muharrikul Haq</c:v>
                 </c:pt>
               </c:strCache>
@@ -1628,36 +1574,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putra'!$H$5:$H$13</c:f>
+              <c:f>'2 putra'!$Q$4:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>595</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>219</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174</c:v>
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,17 +1615,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putra'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -1692,44 +1630,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putra'!$A$5:$C$13</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putra'!$A$5:$A$13</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putra'!$A$5:$A$13</c:f>
+              <c:f>'2 putra'!$L$4:$L$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Arviandow</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Ayaturrahman Shinra</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Khalid Ghazy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Muhammad Radja</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Rasya</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Muhammad Rayhan</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Fa'iq</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Hazwan Hafidzudin</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Rihal Muharrikul Haq</c:v>
                 </c:pt>
               </c:strCache>
@@ -1737,27 +1668,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putra'!$I$5:$I$13</c:f>
+              <c:f>'2 putra'!$R$4:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 putra'!$L$4:$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>Arviandow</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141</c:v>
+                  <c:v>Ayaturrahman Shinra</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>Khalid Ghazy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102</c:v>
+                  <c:v>Muhammad Radja</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Muhammad Rasya</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Muhammad Rayhan</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>224</c:v>
+                  <c:v>Fa'iq</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>181</c:v>
+                  <c:v>Hazwan Hafidzudin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Rihal Muharrikul Haq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 putra'!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,11 +1809,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="256109612"/>
-        <c:axId val="67369853"/>
+        <c:axId val="556931293"/>
+        <c:axId val="65123048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256109612"/>
+        <c:axId val="556931293"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1854,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67369853"/>
+        <c:crossAx val="65123048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1826,7 +1862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67369853"/>
+        <c:axId val="65123048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,7 +1882,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1876,7 +1912,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256109612"/>
+        <c:crossAx val="556931293"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1979,17 +2015,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putri'!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2005,41 +2030,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putri'!$A$5:$C$12</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putri'!$A$5:$A$12</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putri'!$A$5:$A$12</c:f>
+              <c:f>'2 putri'!$L$4:$L$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Hanifatul Qoimah</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Maryam Fikria Tasya</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Mila Najiyah</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Najwa Hani Fillah</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Nayla Izzatul Hasanah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Nida Khalwatus S</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Riska Fitriana Putri</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Safaraz Aufa Rifdah</c:v>
                 </c:pt>
               </c:strCache>
@@ -2047,33 +2065,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putri'!$D$5:$D$12</c:f>
+              <c:f>'2 putri'!$M$4:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,17 +2103,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putri'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -2108,41 +2118,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putri'!$A$5:$C$12</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putri'!$A$5:$A$12</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putri'!$A$5:$A$12</c:f>
+              <c:f>'2 putri'!$L$4:$L$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Hanifatul Qoimah</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Maryam Fikria Tasya</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Mila Najiyah</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Najwa Hani Fillah</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Nayla Izzatul Hasanah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Nida Khalwatus S</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Riska Fitriana Putri</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Safaraz Aufa Rifdah</c:v>
                 </c:pt>
               </c:strCache>
@@ -2150,27 +2153,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putri'!$E$5:$E$12</c:f>
+              <c:f>'2 putri'!$N$4:$N$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,17 +2191,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putri'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -2205,41 +2206,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putri'!$A$5:$C$12</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putri'!$A$5:$A$12</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putri'!$A$5:$A$12</c:f>
+              <c:f>'2 putri'!$L$4:$L$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Hanifatul Qoimah</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Maryam Fikria Tasya</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Mila Najiyah</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Najwa Hani Fillah</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Nayla Izzatul Hasanah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Nida Khalwatus S</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Riska Fitriana Putri</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Safaraz Aufa Rifdah</c:v>
                 </c:pt>
               </c:strCache>
@@ -2247,33 +2241,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putri'!$F$5:$F$12</c:f>
+              <c:f>'2 putri'!$O$4:$O$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,17 +2279,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putri'!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -2308,41 +2294,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putri'!$A$5:$C$12</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putri'!$A$5:$A$12</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putri'!$A$5:$A$12</c:f>
+              <c:f>'2 putri'!$L$4:$L$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Hanifatul Qoimah</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Maryam Fikria Tasya</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Mila Najiyah</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Najwa Hani Fillah</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Nayla Izzatul Hasanah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Nida Khalwatus S</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Riska Fitriana Putri</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Safaraz Aufa Rifdah</c:v>
                 </c:pt>
               </c:strCache>
@@ -2350,33 +2329,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putri'!$G$5:$G$12</c:f>
+              <c:f>'2 putri'!$P$4:$P$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>108</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2385,17 +2367,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putri'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jul</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -2411,41 +2382,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putri'!$A$5:$C$12</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putri'!$A$5:$A$12</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putri'!$A$5:$A$12</c:f>
+              <c:f>'2 putri'!$L$4:$L$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Hanifatul Qoimah</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Maryam Fikria Tasya</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Mila Najiyah</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Najwa Hani Fillah</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Nayla Izzatul Hasanah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Nida Khalwatus S</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Riska Fitriana Putri</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Safaraz Aufa Rifdah</c:v>
                 </c:pt>
               </c:strCache>
@@ -2453,33 +2417,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putri'!$H$5:$H$12</c:f>
+              <c:f>'2 putri'!$Q$4:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,17 +2455,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 putri'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -2514,41 +2470,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2 putri'!$A$5:$C$12</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'2 putri'!$A$5:$A$12</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2 putri'!$A$5:$A$12</c:f>
+              <c:f>'2 putri'!$L$4:$L$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Hanifatul Qoimah</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Maryam Fikria Tasya</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Mila Najiyah</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Najwa Hani Fillah</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Nayla Izzatul Hasanah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Nida Khalwatus S</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Riska Fitriana Putri</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Safaraz Aufa Rifdah</c:v>
                 </c:pt>
               </c:strCache>
@@ -2556,30 +2505,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 putri'!$I$5:$I$12</c:f>
+              <c:f>'2 putri'!$R$4:$R$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 putri'!$L$4:$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Nama</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>Hanifatul Qoimah</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>Maryam Fikria Tasya</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>Mila Najiyah</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118</c:v>
+                  <c:v>Najwa Hani Fillah</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>Nayla Izzatul Hasanah</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nida Khalwatus S</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>Riska Fitriana Putri</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Safaraz Aufa Rifdah</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 putri'!$S$4:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2595,11 +2637,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="616884033"/>
-        <c:axId val="178400541"/>
+        <c:axId val="832648370"/>
+        <c:axId val="885146300"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="616884033"/>
+        <c:axId val="832648370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,7 +2682,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178400541"/>
+        <c:crossAx val="885146300"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2648,7 +2690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178400541"/>
+        <c:axId val="885146300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2740,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616884033"/>
+        <c:crossAx val="832648370"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2801,17 +2843,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putra'!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2827,69 +2858,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putra'!$A$5:$C$11</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putra'!$A$5:$A$11</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putra'!$A$5:$A$11</c:f>
+              <c:f>'3 putra'!$L$4:$L$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Ja'far Asshodiq Habibullah F</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Abdurrahman Al-Zuhdi</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>M. Fatih Yusuf Rahman</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Dzaakir Hawaary Arbie</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Firmansyah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Syamil Muwahhiduddien</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Royyan Abdullah Asyari</c:v>
+                <c:pt idx="7">
+                  <c:v>Royyan Abdullah Assariy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putra'!$D$5:$D$11</c:f>
+              <c:f>'3 putra'!$M$4:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,17 +2925,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putra'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -2924,69 +2940,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putra'!$A$5:$C$11</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putra'!$A$5:$A$11</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putra'!$A$5:$A$11</c:f>
+              <c:f>'3 putra'!$L$4:$L$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Ja'far Asshodiq Habibullah F</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Abdurrahman Al-Zuhdi</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>M. Fatih Yusuf Rahman</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Dzaakir Hawaary Arbie</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Firmansyah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Syamil Muwahhiduddien</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Royyan Abdullah Asyari</c:v>
+                <c:pt idx="7">
+                  <c:v>Royyan Abdullah Assariy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putra'!$E$5:$E$11</c:f>
+              <c:f>'3 putra'!$N$4:$N$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,17 +3007,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putra'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -3021,69 +3022,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putra'!$A$5:$C$11</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putra'!$A$5:$A$11</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putra'!$A$5:$A$11</c:f>
+              <c:f>'3 putra'!$L$4:$L$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Ja'far Asshodiq Habibullah F</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Abdurrahman Al-Zuhdi</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>M. Fatih Yusuf Rahman</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Dzaakir Hawaary Arbie</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Firmansyah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Syamil Muwahhiduddien</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Royyan Abdullah Asyari</c:v>
+                <c:pt idx="7">
+                  <c:v>Royyan Abdullah Assariy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putra'!$F$5:$F$11</c:f>
+              <c:f>'3 putra'!$O$4:$O$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3092,17 +3089,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putra'!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -3118,66 +3104,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putra'!$A$5:$C$11</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putra'!$A$5:$A$11</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putra'!$A$5:$A$11</c:f>
+              <c:f>'3 putra'!$L$4:$L$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Ja'far Asshodiq Habibullah F</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Abdurrahman Al-Zuhdi</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>M. Fatih Yusuf Rahman</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Dzaakir Hawaary Arbie</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Firmansyah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Syamil Muwahhiduddien</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Royyan Abdullah Asyari</c:v>
+                <c:pt idx="7">
+                  <c:v>Royyan Abdullah Assariy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putra'!$G$5:$G$11</c:f>
+              <c:f>'3 putra'!$P$4:$P$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,17 +3171,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putra'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jul</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -3212,69 +3186,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putra'!$A$5:$C$11</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putra'!$A$5:$A$11</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putra'!$A$5:$A$11</c:f>
+              <c:f>'3 putra'!$L$4:$L$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Ja'far Asshodiq Habibullah F</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Abdurrahman Al-Zuhdi</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>M. Fatih Yusuf Rahman</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Dzaakir Hawaary Arbie</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Firmansyah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Syamil Muwahhiduddien</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Royyan Abdullah Asyari</c:v>
+                <c:pt idx="7">
+                  <c:v>Royyan Abdullah Assariy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putra'!$H$5:$H$11</c:f>
+              <c:f>'3 putra'!$Q$4:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>228</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>182</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>169</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214</c:v>
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3283,17 +3253,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putra'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -3309,69 +3268,146 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putra'!$A$5:$C$11</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putra'!$A$5:$A$11</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putra'!$A$5:$A$11</c:f>
+              <c:f>'3 putra'!$L$4:$L$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Ja'far Asshodiq Habibullah F</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Abdurrahman Al-Zuhdi</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>M. Fatih Yusuf Rahman</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Dzaakir Hawaary Arbie</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muhammad Firmansyah</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Syamil Muwahhiduddien</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Royyan Abdullah Asyari</c:v>
+                <c:pt idx="7">
+                  <c:v>Royyan Abdullah Assariy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putra'!$I$5:$I$11</c:f>
+              <c:f>'3 putra'!$R$4:$R$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>189</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 putra'!$L$4:$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Nama</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>Ja'far Asshodiq Habibullah F</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>Abdurrahman Al-Zuhdi</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175</c:v>
+                  <c:v>M. Fatih Yusuf Rahman</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>252</c:v>
+                  <c:v>Dzaakir Hawaary Arbie</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>Muhammad Firmansyah</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>Syamil Muwahhiduddien</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Royyan Abdullah Assariy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 putra'!$S$4:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,11 +3423,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="973059900"/>
-        <c:axId val="155720004"/>
+        <c:axId val="968052927"/>
+        <c:axId val="126986683"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="973059900"/>
+        <c:axId val="968052927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,7 +3468,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155720004"/>
+        <c:crossAx val="126986683"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3440,7 +3476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155720004"/>
+        <c:axId val="126986683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3490,7 +3526,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973059900"/>
+        <c:crossAx val="968052927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3593,17 +3629,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putri'!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3619,35 +3644,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putri'!$A$5:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putri'!$A$5:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putri'!$A$5:$A$10</c:f>
+              <c:f>'3 putri'!$L$4:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Jahrisa Juana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Nurlayli Ubadah</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Nadyne Fathiya Chairinda</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Salwa</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muthia Shofia</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Inas Afifah</c:v>
                 </c:pt>
               </c:strCache>
@@ -3655,27 +3673,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putri'!$D$5:$D$10</c:f>
+              <c:f>'3 putri'!$M$4:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,17 +3705,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putri'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -3710,35 +3720,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putri'!$A$5:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putri'!$A$5:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putri'!$A$5:$A$10</c:f>
+              <c:f>'3 putri'!$L$4:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Jahrisa Juana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Nurlayli Ubadah</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Nadyne Fathiya Chairinda</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Salwa</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muthia Shofia</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Inas Afifah</c:v>
                 </c:pt>
               </c:strCache>
@@ -3746,27 +3749,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putri'!$E$5:$E$10</c:f>
+              <c:f>'3 putri'!$N$4:$N$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,17 +3781,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putri'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -3801,35 +3796,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putri'!$A$5:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putri'!$A$5:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putri'!$A$5:$A$10</c:f>
+              <c:f>'3 putri'!$L$4:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Jahrisa Juana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Nurlayli Ubadah</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Nadyne Fathiya Chairinda</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Salwa</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muthia Shofia</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Inas Afifah</c:v>
                 </c:pt>
               </c:strCache>
@@ -3837,27 +3825,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putri'!$F$5:$F$10</c:f>
+              <c:f>'3 putri'!$O$4:$O$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,17 +3857,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putri'!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -3892,35 +3872,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putri'!$A$5:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putri'!$A$5:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putri'!$A$5:$A$10</c:f>
+              <c:f>'3 putri'!$L$4:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Jahrisa Juana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Nurlayli Ubadah</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Nadyne Fathiya Chairinda</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Salwa</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muthia Shofia</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Inas Afifah</c:v>
                 </c:pt>
               </c:strCache>
@@ -3928,27 +3901,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putri'!$G$5:$G$10</c:f>
+              <c:f>'3 putri'!$P$4:$P$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3957,17 +3933,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putri'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jul</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -3983,35 +3948,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putri'!$A$5:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putri'!$A$5:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putri'!$A$5:$A$10</c:f>
+              <c:f>'3 putri'!$L$4:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Jahrisa Juana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Nurlayli Ubadah</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Nadyne Fathiya Chairinda</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Salwa</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muthia Shofia</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Inas Afifah</c:v>
                 </c:pt>
               </c:strCache>
@@ -4019,27 +3977,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putri'!$H$5:$H$10</c:f>
+              <c:f>'3 putri'!$Q$4:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>304</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,17 +4009,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 putri'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -4074,35 +4024,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3 putri'!$A$5:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'3 putri'!$A$5:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3 putri'!$A$5:$A$10</c:f>
+              <c:f>'3 putri'!$L$4:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Nama</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Jahrisa Juana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Nurlayli Ubadah</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Nadyne Fathiya Chairinda</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Salwa</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Muthia Shofia</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Inas Afifah</c:v>
                 </c:pt>
               </c:strCache>
@@ -4110,27 +4053,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 putri'!$I$5:$I$10</c:f>
+              <c:f>'3 putri'!$R$4:$R$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>273</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 putri'!$L$4:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Nama</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>221</c:v>
+                  <c:v>Jahrisa Juana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>Nurlayli Ubadah</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>153</c:v>
+                  <c:v>Nadyne Fathiya Chairinda</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325</c:v>
+                  <c:v>Salwa</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80</c:v>
+                  <c:v>Muthia Shofia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Inas Afifah</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 putri'!$S$4:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4146,11 +4167,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="158081475"/>
-        <c:axId val="64521622"/>
+        <c:axId val="248730932"/>
+        <c:axId val="69068790"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158081475"/>
+        <c:axId val="248730932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4212,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64521622"/>
+        <c:crossAx val="69068790"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4199,7 +4220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64521622"/>
+        <c:axId val="69068790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4249,7 +4270,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158081475"/>
+        <c:crossAx val="248730932"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6506,22 +6527,22 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>105410</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Bagan 11"/>
+        <xdr:cNvPr id="5" name="Bagan 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="2679700"/>
+        <a:off x="635" y="2651125"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6542,21 +6563,21 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>99695</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Bagan 8"/>
+        <xdr:cNvPr id="6" name="Bagan 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="2489200"/>
+        <a:off x="635" y="2498725"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6577,21 +6598,21 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>337820</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Bagan 4"/>
+        <xdr:cNvPr id="3" name="Bagan 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="2298700"/>
+        <a:off x="635" y="2289175"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6612,21 +6633,21 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>124460</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Bagan 8"/>
+        <xdr:cNvPr id="2" name="Bagan 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="2108200"/>
+        <a:off x="635" y="2117725"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6898,10 +6919,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I29"/>
+      <selection activeCell="A1" sqref="A1:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6915,6 +6936,8 @@
     <col min="7" max="7" width="4.71428571428571" customWidth="1"/>
     <col min="8" max="8" width="4.57142857142857" customWidth="1"/>
     <col min="9" max="9" width="4.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="4.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="21.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6929,301 +6952,600 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="13"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
+    <row r="4" customHeight="1" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="J4" s="13"/>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9">
+      <c r="C5" s="10"/>
+      <c r="D5" s="8">
         <v>597</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>583</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>9</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>595</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="17"/>
+      <c r="L5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5:P13" si="0">G5-F5</f>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <f t="shared" ref="S5:S13" si="1">J5-I5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>9</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>22</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>60</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>68</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>71</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>78</v>
       </c>
+      <c r="J6" s="18">
+        <v>79</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" ref="N5:N13" si="2">E6-D6</f>
+        <v>13</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" ref="O5:O13" si="3">F6-E6</f>
+        <v>38</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" ref="Q5:Q13" si="4">H6-G6</f>
+        <v>3</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" ref="R5:R13" si="5">I6-H6</f>
+        <v>7</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>41</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>77</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>92</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>108</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>124</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>141</v>
       </c>
+      <c r="J7" s="18">
+        <v>144</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>9</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>23</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>35</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>44</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>45</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>54</v>
       </c>
+      <c r="J8" s="18">
+        <v>55</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>29</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>41</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>63</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>79</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>86</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>102</v>
       </c>
+      <c r="J9" s="18">
+        <v>106</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
         <v>593</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>7</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>11</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>14</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>17</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="17"/>
+      <c r="L10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8">
         <v>9</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>17</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>28</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>36</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>43</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="17"/>
+      <c r="L11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="8">
+        <v>61</v>
+      </c>
+      <c r="E12" s="8">
+        <v>129</v>
+      </c>
+      <c r="F12" s="8">
+        <v>169</v>
+      </c>
+      <c r="G12" s="8">
+        <v>200</v>
+      </c>
+      <c r="H12" s="8">
+        <v>219</v>
+      </c>
+      <c r="I12" s="14">
+        <v>224</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="L12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D12" s="9">
+      <c r="Q12" s="8">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="R12" s="14">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S12" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8">
         <v>61</v>
       </c>
-      <c r="E12" s="9">
-        <v>129</v>
-      </c>
-      <c r="F12" s="9">
-        <v>169</v>
-      </c>
-      <c r="G12" s="9">
-        <v>200</v>
-      </c>
-      <c r="H12" s="9">
-        <v>219</v>
-      </c>
-      <c r="I12" s="15">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="9">
-        <v>61</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>112</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>153</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>165</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>174</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <v>181</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="L13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S13" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="R4:S4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <pageSetup paperSize="10000" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7234,10 +7556,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I28"/>
+      <selection activeCell="A1" sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7251,6 +7573,8 @@
     <col min="7" max="7" width="4.71428571428571" customWidth="1"/>
     <col min="8" max="8" width="4.57142857142857" customWidth="1"/>
     <col min="9" max="9" width="4.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="4.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="21.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7265,276 +7589,572 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="13"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
+    <row r="4" customHeight="1" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="J4" s="13"/>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8">
+        <v>39</v>
+      </c>
+      <c r="G5" s="8">
+        <v>55</v>
+      </c>
+      <c r="H5" s="8">
+        <v>59</v>
+      </c>
+      <c r="I5" s="14">
+        <v>77</v>
+      </c>
+      <c r="J5" s="15">
+        <v>79</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" ref="N5:S12" si="0">F5-E5</f>
+        <v>30</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S5" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8">
+        <v>64</v>
+      </c>
+      <c r="H6" s="8">
+        <v>64</v>
+      </c>
+      <c r="I6" s="14">
+        <v>77</v>
+      </c>
+      <c r="J6" s="15">
+        <v>79</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S6" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="9">
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="8">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8">
+        <v>83</v>
+      </c>
+      <c r="G7" s="8">
+        <v>94</v>
+      </c>
+      <c r="H7" s="8">
+        <v>96</v>
+      </c>
+      <c r="I7" s="14">
+        <v>115</v>
+      </c>
+      <c r="J7" s="15">
+        <v>119</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="S7" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8">
+        <v>41</v>
+      </c>
+      <c r="E8" s="8">
+        <v>57</v>
+      </c>
+      <c r="F8" s="8">
+        <v>75</v>
+      </c>
+      <c r="G8" s="8">
+        <v>85</v>
+      </c>
+      <c r="H8" s="8">
+        <v>90</v>
+      </c>
+      <c r="I8" s="14">
+        <v>114</v>
+      </c>
+      <c r="J8" s="15">
+        <v>118</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8">
+        <v>69</v>
+      </c>
+      <c r="F9" s="8">
+        <v>88</v>
+      </c>
+      <c r="G9" s="8">
+        <v>98</v>
+      </c>
+      <c r="H9" s="8">
+        <v>100</v>
+      </c>
+      <c r="I9" s="14">
+        <v>118</v>
+      </c>
+      <c r="J9" s="15">
+        <v>121</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S9" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8">
         <v>21</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E10" s="8">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8">
+        <v>70</v>
+      </c>
+      <c r="G10" s="8">
+        <v>79</v>
+      </c>
+      <c r="H10" s="8">
+        <v>84</v>
+      </c>
+      <c r="I10" s="14">
+        <v>100</v>
+      </c>
+      <c r="J10" s="15">
+        <v>101</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F5" s="9">
-        <v>39</v>
-      </c>
-      <c r="G5" s="9">
-        <v>55</v>
-      </c>
-      <c r="H5" s="9">
-        <v>59</v>
-      </c>
-      <c r="I5" s="15">
-        <v>77</v>
+      <c r="Q10" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="8">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8">
+        <v>21</v>
+      </c>
+      <c r="F11" s="8">
+        <v>53</v>
+      </c>
+      <c r="G11" s="8">
+        <v>68</v>
+      </c>
+      <c r="H11" s="8">
+        <v>76</v>
+      </c>
+      <c r="I11" s="14">
+        <v>76</v>
+      </c>
+      <c r="J11" s="15">
+        <v>90</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="8">
+        <v>56</v>
+      </c>
+      <c r="E12" s="8">
+        <v>56</v>
+      </c>
+      <c r="F12" s="8">
+        <v>94</v>
+      </c>
+      <c r="G12" s="8">
+        <v>108</v>
+      </c>
+      <c r="H12" s="8">
+        <v>111</v>
+      </c>
+      <c r="I12" s="14">
+        <v>140</v>
+      </c>
+      <c r="J12" s="15">
+        <v>141</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9">
-        <v>24</v>
-      </c>
-      <c r="E6" s="9">
-        <v>35</v>
-      </c>
-      <c r="F6" s="9">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9">
-        <v>64</v>
-      </c>
-      <c r="H6" s="9">
-        <v>64</v>
-      </c>
-      <c r="I6" s="15">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9">
-        <v>47</v>
-      </c>
-      <c r="E7" s="9">
-        <v>69</v>
-      </c>
-      <c r="F7" s="9">
-        <v>83</v>
-      </c>
-      <c r="G7" s="9">
-        <v>94</v>
-      </c>
-      <c r="H7" s="9">
-        <v>96</v>
-      </c>
-      <c r="I7" s="15">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="9">
-        <v>41</v>
-      </c>
-      <c r="E8" s="9">
-        <v>57</v>
-      </c>
-      <c r="F8" s="9">
-        <v>75</v>
-      </c>
-      <c r="G8" s="9">
-        <v>85</v>
-      </c>
-      <c r="H8" s="9">
-        <v>90</v>
-      </c>
-      <c r="I8" s="15">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="9">
-        <v>53</v>
-      </c>
-      <c r="E9" s="9">
-        <v>69</v>
-      </c>
-      <c r="F9" s="9">
-        <v>88</v>
-      </c>
-      <c r="G9" s="9">
-        <v>98</v>
-      </c>
-      <c r="H9" s="9">
-        <v>100</v>
-      </c>
-      <c r="I9" s="15">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="9">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9">
-        <v>41</v>
-      </c>
-      <c r="F10" s="9">
-        <v>70</v>
-      </c>
-      <c r="G10" s="9">
-        <v>79</v>
-      </c>
-      <c r="H10" s="9">
-        <v>84</v>
-      </c>
-      <c r="I10" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>53</v>
-      </c>
-      <c r="G11" s="9">
-        <v>68</v>
-      </c>
-      <c r="H11" s="9">
-        <v>76</v>
-      </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="9">
-        <v>56</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>94</v>
-      </c>
-      <c r="G12" s="9">
-        <v>108</v>
-      </c>
-      <c r="H12" s="9">
-        <v>111</v>
-      </c>
-      <c r="I12" s="15">
-        <v>140</v>
+      <c r="P12" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R12" s="14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S12" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="R4:S4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <pageSetup paperSize="10000" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7545,10 +8165,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I27"/>
+      <selection activeCell="A1" sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7562,6 +8182,8 @@
     <col min="7" max="7" width="4.71428571428571" customWidth="1"/>
     <col min="8" max="8" width="4.57142857142857" customWidth="1"/>
     <col min="9" max="9" width="4.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="4.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="28.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7576,51 +8198,74 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="13"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
+    <row r="4" customHeight="1" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="J4" s="13"/>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="D5" s="16">
         <v>61</v>
@@ -7637,192 +8282,424 @@
       <c r="H5" s="16">
         <v>179</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>189</v>
       </c>
+      <c r="J5" s="15">
+        <v>189</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" ref="N5:S11" si="0">E5-D5</f>
+        <v>26</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="8">
+        <v>69</v>
+      </c>
+      <c r="E6" s="8">
+        <v>89</v>
+      </c>
+      <c r="F6" s="8">
+        <v>221</v>
+      </c>
+      <c r="G6" s="8">
+        <v>226</v>
+      </c>
+      <c r="H6" s="8">
+        <v>228</v>
+      </c>
+      <c r="I6" s="14">
+        <v>51</v>
+      </c>
+      <c r="J6" s="15">
+        <v>61</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="9">
+      <c r="C7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8">
+        <v>81</v>
+      </c>
+      <c r="E7" s="8">
+        <v>113</v>
+      </c>
+      <c r="F7" s="8">
+        <v>171</v>
+      </c>
+      <c r="G7" s="8">
+        <v>178</v>
+      </c>
+      <c r="H7" s="8">
+        <v>182</v>
+      </c>
+      <c r="I7" s="14">
+        <v>61</v>
+      </c>
+      <c r="J7" s="15">
+        <v>81</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+      <c r="S7" s="15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="8">
+        <v>38</v>
+      </c>
+      <c r="E8" s="8">
+        <v>53</v>
+      </c>
+      <c r="F8" s="8">
+        <v>161</v>
+      </c>
+      <c r="G8" s="8">
+        <v>167</v>
+      </c>
+      <c r="H8" s="8">
+        <v>169</v>
+      </c>
+      <c r="I8" s="14">
+        <v>175</v>
+      </c>
+      <c r="J8" s="15">
+        <v>177</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="9">
-        <v>89</v>
-      </c>
-      <c r="F6" s="9">
-        <v>221</v>
-      </c>
-      <c r="G6" s="9">
-        <v>226</v>
-      </c>
-      <c r="H6" s="9">
-        <v>228</v>
-      </c>
-      <c r="I6" s="15">
-        <v>51</v>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8">
+        <v>81</v>
+      </c>
+      <c r="E9" s="8">
+        <v>117</v>
+      </c>
+      <c r="F9" s="8">
+        <v>225</v>
+      </c>
+      <c r="G9" s="8">
+        <v>235</v>
+      </c>
+      <c r="H9" s="8">
+        <v>241</v>
+      </c>
+      <c r="I9" s="14">
+        <v>252</v>
+      </c>
+      <c r="J9" s="15">
+        <v>256</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S9" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="9">
+    <row r="10" spans="1:19">
+      <c r="A10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8">
         <v>81</v>
       </c>
-      <c r="E7" s="9">
-        <v>113</v>
-      </c>
-      <c r="F7" s="9">
-        <v>171</v>
-      </c>
-      <c r="G7" s="9">
-        <v>178</v>
-      </c>
-      <c r="H7" s="9">
-        <v>182</v>
-      </c>
-      <c r="I7" s="15">
+      <c r="F10" s="8">
+        <v>197</v>
+      </c>
+      <c r="G10" s="8">
+        <v>197</v>
+      </c>
+      <c r="H10" s="8">
+        <v>209</v>
+      </c>
+      <c r="I10" s="14">
+        <v>46</v>
+      </c>
+      <c r="J10" s="15">
         <v>61</v>
       </c>
+      <c r="L10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="9">
-        <v>38</v>
-      </c>
-      <c r="E8" s="9">
-        <v>53</v>
-      </c>
-      <c r="F8" s="9">
-        <v>161</v>
-      </c>
-      <c r="G8" s="9">
-        <v>167</v>
-      </c>
-      <c r="H8" s="9">
-        <v>169</v>
-      </c>
-      <c r="I8" s="15">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="9">
+    <row r="11" spans="1:19">
+      <c r="A11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="8">
         <v>81</v>
       </c>
-      <c r="E9" s="9">
-        <v>117</v>
-      </c>
-      <c r="F9" s="9">
-        <v>225</v>
-      </c>
-      <c r="G9" s="9">
-        <v>235</v>
-      </c>
-      <c r="H9" s="9">
-        <v>241</v>
-      </c>
-      <c r="I9" s="15">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
+      <c r="E11" s="8">
+        <v>126</v>
+      </c>
+      <c r="F11" s="8">
+        <v>170</v>
+      </c>
+      <c r="G11" s="8">
+        <v>200</v>
+      </c>
+      <c r="H11" s="8">
+        <v>214</v>
+      </c>
+      <c r="I11" s="14">
+        <v>240</v>
+      </c>
+      <c r="J11" s="15">
+        <v>245</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="9">
-        <v>57</v>
-      </c>
-      <c r="E10" s="9">
-        <v>81</v>
-      </c>
-      <c r="F10" s="9">
-        <v>197</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <v>209</v>
-      </c>
-      <c r="I10" s="15">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="9">
-        <v>81</v>
-      </c>
-      <c r="E11" s="9">
-        <v>126</v>
-      </c>
-      <c r="F11" s="9">
-        <v>170</v>
-      </c>
-      <c r="G11" s="9">
-        <v>200</v>
-      </c>
-      <c r="H11" s="9">
-        <v>214</v>
-      </c>
-      <c r="I11" s="15">
-        <v>240</v>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="R4:S4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <pageSetup paperSize="10000" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7833,10 +8710,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I26"/>
+      <selection activeCell="A1" sqref="A1:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7850,6 +8727,8 @@
     <col min="7" max="7" width="4.71428571428571" customWidth="1"/>
     <col min="8" max="8" width="4.57142857142857" customWidth="1"/>
     <col min="9" max="9" width="4.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="3.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="25.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7864,223 +8743,421 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="13"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
+    <row r="4" customHeight="1" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="J4" s="13"/>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8">
+        <v>107</v>
+      </c>
+      <c r="F5" s="8">
+        <v>236</v>
+      </c>
+      <c r="G5" s="8">
+        <v>251</v>
+      </c>
+      <c r="H5" s="8">
+        <v>257</v>
+      </c>
+      <c r="I5" s="14">
+        <v>273</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="L5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:S10" si="0">E5-D5</f>
+        <v>26</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="8">
+        <v>81</v>
+      </c>
+      <c r="E6" s="8">
+        <v>102</v>
+      </c>
+      <c r="F6" s="8">
+        <v>198</v>
+      </c>
+      <c r="G6" s="8">
+        <v>210</v>
+      </c>
+      <c r="H6" s="8">
+        <v>213</v>
+      </c>
+      <c r="I6" s="14">
+        <v>221</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="L6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="9">
+      <c r="C7" s="10"/>
+      <c r="D7" s="8">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8">
+        <v>114</v>
+      </c>
+      <c r="G7" s="8">
+        <v>124</v>
+      </c>
+      <c r="H7" s="8">
+        <v>126</v>
+      </c>
+      <c r="I7" s="14">
+        <v>135</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="L7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8">
+        <v>77</v>
+      </c>
+      <c r="F8" s="8">
+        <v>131</v>
+      </c>
+      <c r="G8" s="8">
+        <v>139</v>
+      </c>
+      <c r="H8" s="8">
+        <v>143</v>
+      </c>
+      <c r="I8" s="14">
+        <v>153</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="L8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
         <v>81</v>
       </c>
-      <c r="E5" s="9">
-        <v>107</v>
-      </c>
-      <c r="F5" s="9">
-        <v>236</v>
-      </c>
-      <c r="G5" s="9">
-        <v>251</v>
-      </c>
-      <c r="H5" s="9">
-        <v>257</v>
-      </c>
-      <c r="I5" s="15">
-        <v>273</v>
+      <c r="E9" s="8">
+        <v>141</v>
+      </c>
+      <c r="F9" s="8">
+        <v>282</v>
+      </c>
+      <c r="G9" s="8">
+        <v>289</v>
+      </c>
+      <c r="H9" s="8">
+        <v>304</v>
+      </c>
+      <c r="I9" s="14">
+        <v>325</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="L9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="9">
-        <v>81</v>
-      </c>
-      <c r="E6" s="9">
-        <v>102</v>
-      </c>
-      <c r="F6" s="9">
-        <v>198</v>
-      </c>
-      <c r="G6" s="9">
-        <v>210</v>
-      </c>
-      <c r="H6" s="9">
-        <v>213</v>
-      </c>
-      <c r="I6" s="15">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="9">
-        <v>29</v>
-      </c>
-      <c r="E7" s="9">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9">
-        <v>114</v>
-      </c>
-      <c r="G7" s="9">
-        <v>124</v>
-      </c>
-      <c r="H7" s="9">
-        <v>126</v>
-      </c>
-      <c r="I7" s="15">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="9">
-        <v>60</v>
-      </c>
-      <c r="E8" s="9">
-        <v>77</v>
-      </c>
-      <c r="F8" s="9">
-        <v>131</v>
-      </c>
-      <c r="G8" s="9">
-        <v>139</v>
-      </c>
-      <c r="H8" s="9">
-        <v>143</v>
-      </c>
-      <c r="I8" s="15">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="9">
-        <v>81</v>
-      </c>
-      <c r="E9" s="9">
-        <v>141</v>
-      </c>
-      <c r="F9" s="9">
-        <v>282</v>
-      </c>
-      <c r="G9" s="9">
-        <v>289</v>
-      </c>
-      <c r="H9" s="9">
-        <v>304</v>
-      </c>
-      <c r="I9" s="15">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>37</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>53</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>68</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>74</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>76</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>80</v>
+      </c>
+      <c r="J10" s="15">
+        <v>80</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="R4:S4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <pageSetup paperSize="10000" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/rekap.xlsx
+++ b/rekap.xlsx
@@ -4,28 +4,87 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19950" windowHeight="8295" activeTab="3"/>
+    <workbookView windowWidth="19950" windowHeight="8295" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="2 putra" sheetId="3" r:id="rId1"/>
-    <sheet name="2 putri" sheetId="7" r:id="rId2"/>
-    <sheet name="3 putra" sheetId="8" r:id="rId3"/>
-    <sheet name="3 putri" sheetId="9" r:id="rId4"/>
+    <sheet name="1 putri" sheetId="10" r:id="rId1"/>
+    <sheet name="2 putra" sheetId="3" r:id="rId2"/>
+    <sheet name="2 putri" sheetId="7" r:id="rId3"/>
+    <sheet name="3 putra" sheetId="8" r:id="rId4"/>
+    <sheet name="3 putri" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2 putra'!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2 putri'!$A$1:$J$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'3 putra'!$A$1:$J$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'3 putri'!$A$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2 putra'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putri'!$A$1:$J$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'3 putra'!$A$1:$J$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'3 putri'!$A$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1 putri'!$A$1:$J$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ SANTRI MABAIZ TAHUN 2022</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Marhalah : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ula</t>
+    </r>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>NIS</t>
+  </si>
+  <si>
+    <t>Hafalan Terakhir</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Alya Zulfa Rahmdhani</t>
+  </si>
+  <si>
+    <t>22.02.041</t>
+  </si>
+  <si>
+    <t>Najwa Qurrota'Aini</t>
+  </si>
+  <si>
+    <t>22.02.047</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 24</t>
+  </si>
+  <si>
+    <t>Nur Intan Amira Syafiq</t>
+  </si>
+  <si>
+    <t>22.02.048</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 16</t>
+  </si>
+  <si>
+    <t>Sekar Arum Wijayanti</t>
+  </si>
+  <si>
+    <t>22.02.050</t>
   </si>
   <si>
     <r>
@@ -51,15 +110,6 @@
     </r>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>NIS</t>
-  </si>
-  <si>
-    <t>Hafalan Terakhir</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -75,9 +125,6 @@
     <t>Jul</t>
   </si>
   <si>
-    <t>Sep</t>
-  </si>
-  <si>
     <t>Arviandow</t>
   </si>
   <si>
@@ -90,24 +137,36 @@
     <t>21.02.020</t>
   </si>
   <si>
+    <t>An-Nisa: 19</t>
+  </si>
+  <si>
     <t>Khalid Ghazy</t>
   </si>
   <si>
     <t>21.02.022</t>
   </si>
   <si>
+    <t>Al-An'am: 146</t>
+  </si>
+  <si>
     <t>Muhammad Radja</t>
   </si>
   <si>
     <t>21.02.023</t>
   </si>
   <si>
+    <t>Ali Imran: 61</t>
+  </si>
+  <si>
     <t>Muhammad Rasya</t>
   </si>
   <si>
     <t>21.02.024</t>
   </si>
   <si>
+    <t>Al-Maidah: 23</t>
+  </si>
+  <si>
     <t>Muhammad Rayhan</t>
   </si>
   <si>
@@ -138,6 +197,9 @@
     <t>21.02.030</t>
   </si>
   <si>
+    <t>An-Nisa: 23</t>
+  </si>
+  <si>
     <t>Maryam Fikria Tasya</t>
   </si>
   <si>
@@ -150,6 +212,9 @@
     <t>21.02.031</t>
   </si>
   <si>
+    <t>Al-Maidah: 82</t>
+  </si>
+  <si>
     <t>Najwa Hani Fillah</t>
   </si>
   <si>
@@ -168,16 +233,25 @@
     <t>21.02.034</t>
   </si>
   <si>
+    <t>An-Nisa: 147</t>
+  </si>
+  <si>
     <t>Riska Fitriana Putri</t>
   </si>
   <si>
     <t>21.02.035</t>
   </si>
   <si>
+    <t>An-Nisa: 94</t>
+  </si>
+  <si>
     <t>Safaraz Aufa Rifdah</t>
   </si>
   <si>
     <t>21.02.036</t>
+  </si>
+  <si>
+    <t>Al-An'am: 137</t>
   </si>
   <si>
     <r>
@@ -227,12 +301,18 @@
     <t>20.02.006</t>
   </si>
   <si>
+    <t>Al-Anfal: 25</t>
+  </si>
+  <si>
     <t>Muhammad Firmansyah</t>
   </si>
   <si>
     <t>20.02.007</t>
   </si>
   <si>
+    <t>Ibrahim: 42</t>
+  </si>
+  <si>
     <t>Syamil Muwahhiduddien</t>
   </si>
   <si>
@@ -243,6 +323,9 @@
   </si>
   <si>
     <t>20.02.017</t>
+  </si>
+  <si>
+    <t>Ar-Ra'd: 13</t>
   </si>
   <si>
     <t>Jahrisa Juana</t>
@@ -286,12 +369,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +396,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -321,8 +417,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -336,23 +462,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,54 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,21 +494,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,8 +513,47 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,19 +562,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,43 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,49 +712,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,48 +749,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,16 +787,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,26 +827,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,171 +874,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -946,26 +1048,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1300,14 +1422,14 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.425" customWidth="1"/>
     <col min="2" max="2" width="9.71666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.7166666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="4.575" customWidth="1"/>
     <col min="5" max="5" width="4.85833333333333" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
@@ -1324,20 +1446,20 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:11">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1347,297 +1469,94 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7">
-        <v>597</v>
-      </c>
-      <c r="E5" s="7">
-        <v>583</v>
-      </c>
-      <c r="F5" s="7">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7">
-        <v>9</v>
-      </c>
-      <c r="H5" s="7">
-        <v>595</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7">
-        <v>60</v>
-      </c>
-      <c r="G6" s="7">
-        <v>68</v>
-      </c>
-      <c r="H6" s="7">
-        <v>71</v>
-      </c>
-      <c r="I6" s="13">
-        <v>78</v>
-      </c>
-      <c r="J6" s="17">
-        <v>79</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7">
-        <v>77</v>
-      </c>
-      <c r="F7" s="7">
-        <v>92</v>
-      </c>
-      <c r="G7" s="7">
-        <v>108</v>
-      </c>
-      <c r="H7" s="7">
-        <v>124</v>
-      </c>
-      <c r="I7" s="13">
-        <v>141</v>
-      </c>
-      <c r="J7" s="17">
-        <v>144</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="7">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7">
-        <v>35</v>
-      </c>
-      <c r="G8" s="7">
-        <v>44</v>
-      </c>
-      <c r="H8" s="7">
-        <v>45</v>
-      </c>
-      <c r="I8" s="13">
-        <v>54</v>
-      </c>
-      <c r="J8" s="17">
-        <v>55</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7">
-        <v>63</v>
-      </c>
-      <c r="G9" s="7">
-        <v>79</v>
-      </c>
-      <c r="H9" s="7">
-        <v>86</v>
-      </c>
-      <c r="I9" s="13">
-        <v>102</v>
-      </c>
-      <c r="J9" s="17">
-        <v>106</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7">
-        <v>593</v>
-      </c>
-      <c r="E10" s="7">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7">
-        <v>28</v>
-      </c>
-      <c r="G11" s="7">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>43</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7">
-        <v>61</v>
-      </c>
-      <c r="E12" s="7">
-        <v>129</v>
-      </c>
-      <c r="F12" s="7">
-        <v>169</v>
-      </c>
-      <c r="G12" s="7">
-        <v>200</v>
-      </c>
-      <c r="H12" s="7">
-        <v>219</v>
-      </c>
-      <c r="I12" s="13">
-        <v>224</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7">
-        <v>61</v>
-      </c>
-      <c r="E13" s="7">
-        <v>112</v>
-      </c>
-      <c r="F13" s="7">
-        <v>153</v>
-      </c>
-      <c r="G13" s="7">
-        <v>165</v>
-      </c>
-      <c r="H13" s="7">
-        <v>174</v>
-      </c>
-      <c r="I13" s="13">
-        <v>181</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="14"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="I4:K4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1648,27 +1567,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K14"/>
+  <sheetPr/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="16.7166666666667" customWidth="1"/>
-    <col min="4" max="4" width="4.425" customWidth="1"/>
+    <col min="1" max="1" width="21.425" customWidth="1"/>
+    <col min="2" max="2" width="9.71666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="4.575" customWidth="1"/>
     <col min="5" max="5" width="4.85833333333333" customWidth="1"/>
-    <col min="6" max="6" width="5.14166666666667" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="4.71666666666667" customWidth="1"/>
     <col min="8" max="8" width="4.575" customWidth="1"/>
     <col min="9" max="9" width="4.85833333333333" customWidth="1"/>
     <col min="10" max="10" width="4.575" customWidth="1"/>
+    <col min="11" max="11" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1688,7 +1606,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
@@ -1701,277 +1619,308 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
-        <v>21</v>
+        <v>597</v>
       </c>
       <c r="E5" s="7">
+        <v>583</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7">
         <v>9</v>
       </c>
-      <c r="F5" s="7">
-        <v>39</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
+        <v>595</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7">
+        <v>60</v>
+      </c>
+      <c r="G6" s="7">
+        <v>68</v>
+      </c>
+      <c r="H6" s="7">
+        <v>71</v>
+      </c>
+      <c r="I6" s="13">
+        <v>78</v>
+      </c>
+      <c r="J6" s="20">
+        <v>79</v>
+      </c>
+      <c r="K6" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7">
+        <v>92</v>
+      </c>
+      <c r="G7" s="7">
+        <v>108</v>
+      </c>
+      <c r="H7" s="7">
+        <v>124</v>
+      </c>
+      <c r="I7" s="13">
+        <v>141</v>
+      </c>
+      <c r="J7" s="20">
+        <v>144</v>
+      </c>
+      <c r="K7" s="15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>45</v>
+      </c>
+      <c r="I8" s="13">
+        <v>54</v>
+      </c>
+      <c r="J8" s="20">
         <v>55</v>
       </c>
-      <c r="H5" s="7">
-        <v>59</v>
-      </c>
-      <c r="I5" s="13">
-        <v>77</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="K8" s="15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7">
+        <v>63</v>
+      </c>
+      <c r="G9" s="7">
         <v>79</v>
       </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
-        <v>35</v>
-      </c>
-      <c r="F6" s="7">
-        <v>48</v>
-      </c>
-      <c r="G6" s="7">
-        <v>64</v>
-      </c>
-      <c r="H6" s="7">
-        <v>64</v>
-      </c>
-      <c r="I6" s="13">
-        <v>77</v>
-      </c>
-      <c r="J6" s="13">
-        <v>79</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7">
-        <v>47</v>
-      </c>
-      <c r="E7" s="7">
-        <v>69</v>
-      </c>
-      <c r="F7" s="7">
-        <v>83</v>
-      </c>
-      <c r="G7" s="7">
-        <v>94</v>
-      </c>
-      <c r="H7" s="7">
-        <v>96</v>
-      </c>
-      <c r="I7" s="13">
-        <v>115</v>
-      </c>
-      <c r="J7" s="13">
-        <v>119</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7">
-        <v>57</v>
-      </c>
-      <c r="F8" s="7">
-        <v>75</v>
-      </c>
-      <c r="G8" s="7">
-        <v>85</v>
-      </c>
-      <c r="H8" s="7">
-        <v>90</v>
-      </c>
-      <c r="I8" s="13">
-        <v>114</v>
-      </c>
-      <c r="J8" s="13">
-        <v>118</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7">
-        <v>53</v>
-      </c>
-      <c r="E9" s="7">
-        <v>69</v>
-      </c>
-      <c r="F9" s="7">
-        <v>88</v>
-      </c>
-      <c r="G9" s="7">
-        <v>98</v>
-      </c>
       <c r="H9" s="7">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I9" s="13">
-        <v>118</v>
-      </c>
-      <c r="J9" s="13">
-        <v>121</v>
-      </c>
-      <c r="K9" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="J9" s="20">
+        <v>106</v>
+      </c>
+      <c r="K9" s="18">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7">
-        <v>21</v>
+        <v>593</v>
       </c>
       <c r="E10" s="7">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>84</v>
-      </c>
-      <c r="I10" s="13">
-        <v>100</v>
-      </c>
-      <c r="J10" s="13">
-        <v>101</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G11" s="7">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>76</v>
-      </c>
-      <c r="I11" s="13">
-        <v>76</v>
-      </c>
-      <c r="J11" s="13">
-        <v>90</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7">
+        <v>129</v>
+      </c>
+      <c r="F12" s="7">
+        <v>169</v>
+      </c>
+      <c r="G12" s="7">
+        <v>200</v>
+      </c>
+      <c r="H12" s="7">
+        <v>219</v>
+      </c>
+      <c r="I12" s="13">
+        <v>224</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7">
-        <v>56</v>
-      </c>
-      <c r="E12" s="7">
-        <v>56</v>
-      </c>
-      <c r="F12" s="7">
-        <v>94</v>
-      </c>
-      <c r="G12" s="7">
-        <v>108</v>
-      </c>
-      <c r="H12" s="7">
-        <v>111</v>
-      </c>
-      <c r="I12" s="13">
-        <v>140</v>
-      </c>
-      <c r="J12" s="13">
-        <v>141</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7">
+        <v>112</v>
+      </c>
+      <c r="F13" s="7">
+        <v>153</v>
+      </c>
+      <c r="G13" s="7">
+        <v>165</v>
+      </c>
+      <c r="H13" s="7">
+        <v>174</v>
+      </c>
+      <c r="I13" s="13">
+        <v>181</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1990,17 +1939,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="21.8583333333333" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="16.7166666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="4.425" customWidth="1"/>
     <col min="5" max="5" width="4.85833333333333" customWidth="1"/>
     <col min="6" max="6" width="5.14166666666667" customWidth="1"/>
@@ -2008,6 +1957,7 @@
     <col min="8" max="8" width="4.575" customWidth="1"/>
     <col min="9" max="9" width="4.85833333333333" customWidth="1"/>
     <col min="10" max="10" width="4.575" customWidth="1"/>
+    <col min="11" max="11" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2027,7 +1977,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
@@ -2040,246 +1990,309 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="7">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7">
+        <v>55</v>
+      </c>
+      <c r="H5" s="7">
+        <v>59</v>
+      </c>
+      <c r="I5" s="13">
+        <v>77</v>
+      </c>
+      <c r="J5" s="13">
+        <v>79</v>
+      </c>
+      <c r="K5" s="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="15">
-        <v>61</v>
-      </c>
-      <c r="E5" s="15">
-        <v>87</v>
-      </c>
-      <c r="F5" s="15">
-        <v>165</v>
-      </c>
-      <c r="G5" s="15">
-        <v>175</v>
-      </c>
-      <c r="H5" s="15">
-        <v>179</v>
-      </c>
-      <c r="I5" s="13">
-        <v>189</v>
-      </c>
-      <c r="J5" s="13">
-        <v>189</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7">
+        <v>64</v>
+      </c>
+      <c r="H6" s="7">
+        <v>64</v>
+      </c>
+      <c r="I6" s="13">
+        <v>77</v>
+      </c>
+      <c r="J6" s="13">
+        <v>79</v>
+      </c>
+      <c r="K6" s="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7">
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7">
         <v>69</v>
       </c>
-      <c r="E6" s="7">
-        <v>89</v>
-      </c>
-      <c r="F6" s="7">
-        <v>221</v>
-      </c>
-      <c r="G6" s="7">
-        <v>226</v>
-      </c>
-      <c r="H6" s="7">
-        <v>228</v>
-      </c>
-      <c r="I6" s="13">
-        <v>51</v>
-      </c>
-      <c r="J6" s="13">
-        <v>61</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7">
-        <v>81</v>
-      </c>
-      <c r="E7" s="7">
-        <v>113</v>
-      </c>
       <c r="F7" s="7">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="I7" s="13">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="J7" s="13">
-        <v>81</v>
-      </c>
-      <c r="K7" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="K7" s="15">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="D8" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="I8" s="13">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="J8" s="13">
-        <v>177</v>
-      </c>
-      <c r="K8" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="K8" s="15">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="7">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="F9" s="7">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="G9" s="7">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="H9" s="7">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="I9" s="13">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="J9" s="13">
-        <v>256</v>
-      </c>
-      <c r="K9" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="K9" s="15">
+        <v>121</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="D10" s="7">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c r="I10" s="13">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="J10" s="13">
+        <v>101</v>
+      </c>
+      <c r="K10" s="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="6"/>
       <c r="D11" s="7">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="I11" s="13">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="J11" s="13">
-        <v>245</v>
-      </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="K11" s="15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7">
+        <v>56</v>
+      </c>
+      <c r="E12" s="7">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7">
+        <v>94</v>
+      </c>
+      <c r="G12" s="7">
+        <v>108</v>
+      </c>
+      <c r="H12" s="7">
+        <v>111</v>
+      </c>
+      <c r="I12" s="13">
+        <v>140</v>
+      </c>
+      <c r="J12" s="13">
+        <v>141</v>
+      </c>
+      <c r="K12" s="15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2298,24 +2311,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="9.71666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.7166666666667" customWidth="1"/>
+    <col min="1" max="1" width="28.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="4.425" customWidth="1"/>
     <col min="5" max="5" width="4.85833333333333" customWidth="1"/>
     <col min="6" max="6" width="5.14166666666667" customWidth="1"/>
     <col min="7" max="7" width="4.71666666666667" customWidth="1"/>
     <col min="8" max="8" width="4.575" customWidth="1"/>
     <col min="9" max="9" width="4.85833333333333" customWidth="1"/>
-    <col min="10" max="10" width="3.575" customWidth="1"/>
+    <col min="10" max="10" width="4.575" customWidth="1"/>
+    <col min="11" max="11" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2335,7 +2349,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
@@ -2348,33 +2362,354 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
+      <c r="A5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="16">
+        <v>61</v>
+      </c>
+      <c r="E5" s="16">
+        <v>87</v>
+      </c>
+      <c r="F5" s="16">
+        <v>165</v>
+      </c>
+      <c r="G5" s="16">
+        <v>175</v>
+      </c>
+      <c r="H5" s="16">
+        <v>179</v>
+      </c>
+      <c r="I5" s="13">
+        <v>189</v>
+      </c>
+      <c r="J5" s="13">
+        <v>189</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7">
+        <v>69</v>
+      </c>
+      <c r="E6" s="7">
+        <v>89</v>
+      </c>
+      <c r="F6" s="7">
+        <v>221</v>
+      </c>
+      <c r="G6" s="7">
+        <v>226</v>
+      </c>
+      <c r="H6" s="7">
+        <v>228</v>
+      </c>
+      <c r="I6" s="13">
+        <v>51</v>
+      </c>
+      <c r="J6" s="13">
+        <v>61</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>81</v>
+      </c>
+      <c r="E7" s="7">
+        <v>113</v>
+      </c>
+      <c r="F7" s="7">
+        <v>171</v>
+      </c>
+      <c r="G7" s="7">
+        <v>178</v>
+      </c>
+      <c r="H7" s="7">
+        <v>182</v>
+      </c>
+      <c r="I7" s="13">
+        <v>61</v>
+      </c>
+      <c r="J7" s="13">
+        <v>81</v>
+      </c>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="7">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7">
+        <v>53</v>
+      </c>
+      <c r="F8" s="7">
+        <v>161</v>
+      </c>
+      <c r="G8" s="7">
+        <v>167</v>
+      </c>
+      <c r="H8" s="7">
+        <v>169</v>
+      </c>
+      <c r="I8" s="13">
+        <v>175</v>
+      </c>
+      <c r="J8" s="13">
+        <v>177</v>
+      </c>
+      <c r="K8" s="15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="7">
+        <v>81</v>
+      </c>
+      <c r="E9" s="7">
+        <v>117</v>
+      </c>
+      <c r="F9" s="7">
+        <v>225</v>
+      </c>
+      <c r="G9" s="7">
+        <v>235</v>
+      </c>
+      <c r="H9" s="7">
+        <v>241</v>
+      </c>
+      <c r="I9" s="13">
+        <v>252</v>
+      </c>
+      <c r="J9" s="13">
+        <v>256</v>
+      </c>
+      <c r="K9" s="15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7">
+        <v>57</v>
+      </c>
+      <c r="E10" s="7">
+        <v>81</v>
+      </c>
+      <c r="F10" s="7">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7">
+        <v>197</v>
+      </c>
+      <c r="H10" s="7">
+        <v>209</v>
+      </c>
+      <c r="I10" s="13">
+        <v>46</v>
+      </c>
+      <c r="J10" s="13">
+        <v>61</v>
+      </c>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="7">
+        <v>81</v>
+      </c>
+      <c r="E11" s="7">
+        <v>126</v>
+      </c>
+      <c r="F11" s="7">
+        <v>170</v>
+      </c>
+      <c r="G11" s="7">
+        <v>200</v>
+      </c>
+      <c r="H11" s="7">
+        <v>214</v>
+      </c>
+      <c r="I11" s="13">
+        <v>240</v>
+      </c>
+      <c r="J11" s="13">
+        <v>245</v>
+      </c>
+      <c r="K11" s="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I4:K4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="10000" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="9.71666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="4.425" customWidth="1"/>
+    <col min="5" max="5" width="4.85833333333333" customWidth="1"/>
+    <col min="6" max="6" width="5.14166666666667" customWidth="1"/>
+    <col min="7" max="7" width="4.71666666666667" customWidth="1"/>
+    <col min="8" max="8" width="4.575" customWidth="1"/>
+    <col min="9" max="9" width="4.85833333333333" customWidth="1"/>
+    <col min="10" max="10" width="3.575" customWidth="1"/>
+    <col min="11" max="11" width="3.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7">
@@ -2400,10 +2735,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="7">
@@ -2429,10 +2764,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="7">
@@ -2458,10 +2793,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
@@ -2487,10 +2822,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7">
@@ -2515,13 +2850,15 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5" t="s">
-        <v>70</v>
+      <c r="A10" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="7">
         <v>37</v>
       </c>
@@ -2543,7 +2880,9 @@
       <c r="J10" s="13">
         <v>80</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="15">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rekap.xlsx
+++ b/rekap.xlsx
@@ -31,6 +31,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Marhalah : </t>
     </r>
     <r>
@@ -370,8 +378,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -409,11 +417,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,16 +440,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,15 +478,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,16 +508,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,30 +530,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -539,19 +554,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -580,67 +588,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,103 +738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,15 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -805,7 +804,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,9 +826,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,11 +852,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,149 +873,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,19 +1067,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1571,7 +1579,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1698,12 +1706,12 @@
       <c r="J6" s="20">
         <v>79</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="16">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1733,7 +1741,7 @@
       <c r="J7" s="20">
         <v>144</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="16">
         <v>147</v>
       </c>
     </row>
@@ -1768,7 +1776,7 @@
       <c r="J8" s="20">
         <v>55</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="16">
         <v>57</v>
       </c>
     </row>
@@ -1803,7 +1811,7 @@
       <c r="J9" s="20">
         <v>106</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="13">
         <v>111</v>
       </c>
     </row>
@@ -1942,7 +1950,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2012,7 +2020,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2039,10 +2047,10 @@
       <c r="I5" s="13">
         <v>77</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="15">
         <v>79</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="16">
         <v>81</v>
       </c>
     </row>
@@ -2074,10 +2082,10 @@
       <c r="I6" s="13">
         <v>77</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="15">
         <v>79</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="16">
         <v>81</v>
       </c>
     </row>
@@ -2109,15 +2117,15 @@
       <c r="I7" s="13">
         <v>115</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="15">
         <v>119</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="16">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2144,10 +2152,10 @@
       <c r="I8" s="13">
         <v>114</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="15">
         <v>118</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="16">
         <v>121</v>
       </c>
     </row>
@@ -2179,10 +2187,10 @@
       <c r="I9" s="13">
         <v>118</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="15">
         <v>121</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="16">
         <v>121</v>
       </c>
     </row>
@@ -2214,10 +2222,10 @@
       <c r="I10" s="13">
         <v>100</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="15">
         <v>101</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="16">
         <v>101</v>
       </c>
     </row>
@@ -2252,7 +2260,7 @@
       <c r="J11" s="13">
         <v>90</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="16">
         <v>93</v>
       </c>
     </row>
@@ -2284,10 +2292,10 @@
       <c r="I12" s="13">
         <v>140</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="15">
         <v>141</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="16">
         <v>145</v>
       </c>
     </row>
@@ -2314,7 +2322,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2391,19 +2399,19 @@
         <v>67</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>61</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>87</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="17">
         <v>165</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="17">
         <v>175</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <v>179</v>
       </c>
       <c r="I5" s="13">
@@ -2474,10 +2482,10 @@
       <c r="J7" s="13">
         <v>81</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2504,15 +2512,15 @@
       <c r="I8" s="13">
         <v>175</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="15">
         <v>177</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="16">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2539,10 +2547,10 @@
       <c r="I9" s="13">
         <v>252</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="15">
         <v>256</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="16">
         <v>260</v>
       </c>
     </row>
@@ -2575,7 +2583,7 @@
       <c r="J10" s="13">
         <v>61</v>
       </c>
-      <c r="K10" s="18"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
@@ -2608,7 +2616,7 @@
       <c r="J11" s="13">
         <v>245</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="13">
         <v>250</v>
       </c>
     </row>
@@ -2635,7 +2643,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2877,10 +2885,10 @@
       <c r="I10" s="13">
         <v>80</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="15">
         <v>80</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="16">
         <v>81</v>
       </c>
     </row>
